--- a/ValueSet-SMRSqVS.xlsx
+++ b/ValueSet-SMRSqVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-21T18:47:54-03:00</t>
+    <t>2023-11-21T19:08:35-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SMRSqVS.xlsx
+++ b/ValueSet-SMRSqVS.xlsx
@@ -7,13 +7,13 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from " r:id="rId4" sheetId="2"/>
+    <sheet name="Include from Simplified Modif" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.1</t>
+    <t>0.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>ValueSet of simplified modified Ranking Scale questionnaire (SMRSq)</t>
+    <t>Simplified modified Ranking Scale questionnaire (SMRSq)</t>
   </si>
   <si>
     <t>Status</t>
@@ -54,10 +54,13 @@
     <t>Experimental</t>
   </si>
   <si>
+    <t>false</t>
+  </si>
+  <si>
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-21T19:08:35-03:00</t>
+    <t>2024-01-11T13:00:00-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -75,7 +78,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>This ValueSet defines the response values for the simplified modified Ranking Scale questionnaire.</t>
+    <t>ValueSet that defines the response values for the simplified modified Ranking Scale questionnaire.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -141,7 +144,7 @@
     <t>System URI</t>
   </si>
   <si>
-    <t>https://connect.ichom.org/patient-centered-outcome-measures/stroke/smrsq/</t>
+    <t>https://molic-avc.gabriellesantosleandro.com/CodeSystem/SMRSqCS</t>
   </si>
 </sst>
 </file>
@@ -337,66 +340,68 @@
       <c r="A7" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" t="s" s="2">
+        <v>13</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -418,82 +423,82 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
